--- a/Stephanie/cannabis-cocaine-with-years.xlsx
+++ b/Stephanie/cannabis-cocaine-with-years.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniemark/Documents/SP18/INFO 3300/3300-p1/Stephanie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelzhang/Documents/GitHub/3300-p1/Stephanie/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,10 @@
     <sheet name="Cannabis" sheetId="1" r:id="rId1"/>
     <sheet name="Cocaine" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cocaine!$A$1:$C$281</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="275">
   <si>
     <t>Country</t>
   </si>
@@ -730,6 +733,126 @@
   </si>
   <si>
     <t xml:space="preserve">Annual Prevalence of Cocaine Use as a percentage of the population aged 15-64 (unless otherwise indicated) - Best	</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>CZECH REPUBLIC</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>ESTONIA</t>
+  </si>
+  <si>
+    <t>FINLAND</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>ICELAND</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>KOREA</t>
+  </si>
+  <si>
+    <t>LATVIA</t>
+  </si>
+  <si>
+    <t>LUXEMBOURG</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>NEW ZEALAND</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>SLOVAK REPUBLIC</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -753,7 +876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +886,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -792,570 +921,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1667,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2DB33-1DBF-CF42-BB5E-C7CEDC31CA1C}">
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -4841,19 +4412,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77C6C6F-34F3-5A4F-9255-4F3FBD59FD1D}">
-  <dimension ref="A1:M281"/>
+  <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="15" max="15" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4884,8 +4457,26 @@
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -4893,13 +4484,23 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S2" t="s">
+        <v>236</v>
+      </c>
+      <c r="T2">
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="U2">
+        <f>H268</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -4907,63 +4508,121 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>2008</v>
+      </c>
+      <c r="S3" t="s">
+        <v>237</v>
+      </c>
+      <c r="T3">
+        <v>7.0060000419616699</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U36" si="0">VLOOKUP(S3, O:Q, 2, FALSE)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>179</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>238</v>
+      </c>
+      <c r="T4">
+        <v>6.8909997940063477</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>179</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>2013</v>
+      </c>
+      <c r="S5" t="s">
+        <v>239</v>
+      </c>
+      <c r="T5">
+        <v>7.3159999847412109</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>240</v>
+      </c>
+      <c r="T6">
+        <v>6.6519999504089355</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>96</v>
       </c>
       <c r="B7">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -4980,64 +4639,141 @@
       <c r="M7">
         <v>2007</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>2013</v>
+      </c>
+      <c r="S7" t="s">
+        <v>241</v>
+      </c>
+      <c r="T7">
+        <v>6.6090002059936523</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
       <c r="B8">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="C8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>242</v>
+      </c>
+      <c r="T8">
+        <v>7.5219998359680176</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="B9">
-        <v>1.21</v>
+        <v>1.73</v>
       </c>
       <c r="C9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9">
+        <v>1.73</v>
+      </c>
+      <c r="Q9">
+        <v>2014</v>
+      </c>
+      <c r="S9" t="s">
+        <v>243</v>
+      </c>
+      <c r="T9">
+        <v>5.6110000610351562</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>182</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>244</v>
+      </c>
+      <c r="T10">
+        <v>7.4689998626708984</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>182</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11">
+        <v>0.1</v>
+      </c>
+      <c r="Q11">
+        <v>2013</v>
+      </c>
+      <c r="S11" t="s">
+        <v>245</v>
+      </c>
+      <c r="T11">
+        <v>6.4419999122619629</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -5045,13 +4781,23 @@
         <v>0.9</v>
       </c>
       <c r="C12">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>246</v>
+      </c>
+      <c r="T12">
+        <v>6.9510002136230469</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -5059,13 +4805,32 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13">
+        <v>0.9</v>
+      </c>
+      <c r="Q13">
+        <v>2013</v>
+      </c>
+      <c r="S13" t="s">
+        <v>247</v>
+      </c>
+      <c r="T13">
+        <v>5.2270002365112305</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -5073,13 +4838,23 @@
         <v>0.6</v>
       </c>
       <c r="C14">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>248</v>
+      </c>
+      <c r="T14">
+        <v>5.3239998817443848</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -5087,7 +4862,7 @@
         <v>0.6</v>
       </c>
       <c r="C15">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -5104,16 +4879,35 @@
       <c r="M15">
         <v>2010</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>184</v>
+      </c>
+      <c r="P15">
+        <v>0.6</v>
+      </c>
+      <c r="Q15">
+        <v>2008</v>
+      </c>
+      <c r="S15" t="s">
+        <v>249</v>
+      </c>
+      <c r="T15">
+        <v>7.504000186920166</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>186</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -5124,30 +4918,59 @@
       <c r="M16">
         <v>2006</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>250</v>
+      </c>
+      <c r="T16">
+        <v>6.9770002365112305</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>186</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C17">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+      <c r="Q17">
+        <v>2010</v>
+      </c>
+      <c r="S17" t="s">
+        <v>251</v>
+      </c>
+      <c r="T17">
+        <v>7.2129998207092285</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>187</v>
       </c>
       <c r="B18">
-        <v>1.1000000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C18">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -5158,22 +4981,51 @@
       <c r="M18">
         <v>2004</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S18" t="s">
+        <v>252</v>
+      </c>
+      <c r="T18">
+        <v>5.9640002250671387</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>187</v>
       </c>
       <c r="B19">
-        <v>0.88</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C19">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>187</v>
+      </c>
+      <c r="P19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>2014</v>
+      </c>
+      <c r="S19" t="s">
+        <v>253</v>
+      </c>
+      <c r="T19">
+        <v>5.9200000762939453</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -5181,13 +5033,23 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S20" t="s">
+        <v>254</v>
+      </c>
+      <c r="T20">
+        <v>5.8379998207092285</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -5195,13 +5057,32 @@
         <v>0.8</v>
       </c>
       <c r="C21">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>188</v>
+      </c>
+      <c r="P21">
+        <v>0.8</v>
+      </c>
+      <c r="Q21">
+        <v>2012</v>
+      </c>
+      <c r="S21" t="s">
+        <v>255</v>
+      </c>
+      <c r="T21">
+        <v>5.8499999046325684</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -5214,8 +5095,27 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>190</v>
+      </c>
+      <c r="P22">
+        <v>0.1</v>
+      </c>
+      <c r="Q22">
+        <v>2004</v>
+      </c>
+      <c r="S22" t="s">
+        <v>256</v>
+      </c>
+      <c r="T22">
+        <v>6.8629999160766602</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -5228,64 +5128,141 @@
       <c r="G23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>192</v>
+      </c>
+      <c r="P23">
+        <v>0.2</v>
+      </c>
+      <c r="Q23">
+        <v>2007</v>
+      </c>
+      <c r="S23" t="s">
+        <v>257</v>
+      </c>
+      <c r="T23">
+        <v>6.5780000686645508</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>193</v>
       </c>
       <c r="B24">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="C24">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S24" t="s">
+        <v>258</v>
+      </c>
+      <c r="T24">
+        <v>7.3769998550415039</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>193</v>
       </c>
       <c r="B25">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="C25">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>193</v>
+      </c>
+      <c r="P25">
+        <v>0.92</v>
+      </c>
+      <c r="Q25">
+        <v>2011</v>
+      </c>
+      <c r="S25" t="s">
+        <v>259</v>
+      </c>
+      <c r="T25">
+        <v>7.314000129699707</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>194</v>
       </c>
       <c r="B26">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C26">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S26" t="s">
+        <v>260</v>
+      </c>
+      <c r="T26">
+        <v>7.5370001792907715</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>194</v>
       </c>
       <c r="B27">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="C27">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27">
+        <v>1.5</v>
+      </c>
+      <c r="Q27">
+        <v>2011</v>
+      </c>
+      <c r="S27" t="s">
+        <v>261</v>
+      </c>
+      <c r="T27">
+        <v>5.9730000495910645</v>
+      </c>
+      <c r="U27">
+        <f>H246</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -5298,30 +5275,60 @@
       <c r="G28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28">
+        <v>1.07</v>
+      </c>
+      <c r="Q28">
+        <v>2009</v>
+      </c>
+      <c r="S28" t="s">
+        <v>262</v>
+      </c>
+      <c r="T28">
+        <v>5.195000171661377</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>196</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>197</v>
+        <v>0.6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2012</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q29" s="2"/>
+      <c r="S29" t="s">
+        <v>263</v>
+      </c>
+      <c r="T29">
+        <v>6.0980000495910645</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>196</v>
       </c>
       <c r="B30">
-        <v>0.6</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2012</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -5338,8 +5345,27 @@
       <c r="M30">
         <v>2011</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S30" t="s">
+        <v>264</v>
+      </c>
+      <c r="T30">
+        <v>5.7579998970031738</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -5360,10 +5386,25 @@
       <c r="M31">
         <v>2008</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="S31" t="s">
+        <v>265</v>
+      </c>
+      <c r="T31">
+        <v>6.4029998779296875</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="B32">
         <v>0.03</v>
@@ -5374,72 +5415,149 @@
       <c r="G32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>273</v>
+      </c>
+      <c r="P32">
+        <v>0.03</v>
+      </c>
+      <c r="Q32">
+        <v>2004</v>
+      </c>
+      <c r="S32" t="s">
+        <v>266</v>
+      </c>
+      <c r="T32">
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>198</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S33" t="s">
+        <v>267</v>
+      </c>
+      <c r="T33">
+        <v>7.4939999580383301</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>198</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>198</v>
+      </c>
+      <c r="P34">
+        <v>0.2</v>
+      </c>
+      <c r="Q34">
+        <v>2011</v>
+      </c>
+      <c r="S34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T34">
+        <v>5.5</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>201</v>
       </c>
       <c r="B35">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="C35">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S35" t="s">
+        <v>269</v>
+      </c>
+      <c r="T35">
+        <v>6.7140002250671387</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>201</v>
       </c>
       <c r="B36">
-        <v>0.9</v>
+        <v>1.04</v>
       </c>
       <c r="C36">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>201</v>
+      </c>
+      <c r="P36">
+        <v>1.04</v>
+      </c>
+      <c r="Q36">
+        <v>2010</v>
+      </c>
+      <c r="S36" t="s">
+        <v>270</v>
+      </c>
+      <c r="T36">
+        <v>6.9930000305175781</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>97</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C37">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -5451,15 +5569,15 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C38">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -5470,232 +5588,313 @@
       <c r="M38">
         <v>2004</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38">
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>204</v>
       </c>
       <c r="B39">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="C39">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="G39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>204</v>
       </c>
       <c r="B40">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C40">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="G40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
+        <v>204</v>
+      </c>
+      <c r="P40">
+        <v>1.6</v>
+      </c>
+      <c r="Q40">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>232</v>
       </c>
       <c r="B41">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="C41">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>232</v>
       </c>
       <c r="B42">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="C42">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>232</v>
+      </c>
+      <c r="P42">
+        <v>0.6</v>
+      </c>
+      <c r="Q42">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>205</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C43">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>205</v>
       </c>
       <c r="B44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>205</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>208</v>
       </c>
       <c r="B45">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C45">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="G45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>208</v>
       </c>
       <c r="B46">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="G46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>208</v>
+      </c>
+      <c r="P46">
+        <v>0.2</v>
+      </c>
+      <c r="Q46">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>210</v>
       </c>
       <c r="B47">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C47">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>210</v>
       </c>
       <c r="B48">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C48">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>263</v>
+      </c>
+      <c r="P48">
+        <v>0.2</v>
+      </c>
+      <c r="Q48">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>211</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C49">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="G49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>211</v>
       </c>
       <c r="B50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C50">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="G50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>211</v>
+      </c>
+      <c r="P50">
+        <v>0.5</v>
+      </c>
+      <c r="Q50">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>212</v>
       </c>
       <c r="B51">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C51">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>212</v>
       </c>
       <c r="B52">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C52">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>212</v>
+      </c>
+      <c r="P52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q52">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>213</v>
       </c>
       <c r="B53">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="C53">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="G53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>213</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="C54">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="G54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>213</v>
+      </c>
+      <c r="P54">
+        <v>0.38</v>
+      </c>
+      <c r="Q54">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -5703,7 +5902,7 @@
         <v>0.5</v>
       </c>
       <c r="C55">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G55" t="s">
         <v>58</v>
@@ -5721,7 +5920,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -5729,13 +5928,22 @@
         <v>0.5</v>
       </c>
       <c r="C56">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>214</v>
+      </c>
+      <c r="P56">
+        <v>0.5</v>
+      </c>
+      <c r="Q56">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>176</v>
       </c>
@@ -5749,28 +5957,39 @@
       <c r="G57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>176</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="B58" s="2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D58" s="2"/>
       <c r="G58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="B59" s="2">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>217</v>
@@ -5779,23 +5998,34 @@
       <c r="G59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="B60" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2011</v>
+        <v>2.4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D60" s="2"/>
       <c r="G60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>271</v>
+      </c>
+      <c r="P60" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>218</v>
       </c>
@@ -5809,23 +6039,27 @@
       <c r="G61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B62" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>217</v>
+        <v>1.5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2011</v>
       </c>
       <c r="D62" s="2"/>
       <c r="G62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>219</v>
       </c>
@@ -5839,10 +6073,12 @@
       <c r="G63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="B64">
         <v>2.1</v>
@@ -5852,6 +6088,15 @@
       </c>
       <c r="G64" t="s">
         <v>67</v>
+      </c>
+      <c r="O64" t="s">
+        <v>274</v>
+      </c>
+      <c r="P64">
+        <v>2.1</v>
+      </c>
+      <c r="Q64">
+        <v>2014</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -7924,10 +8169,10 @@
       </c>
     </row>
     <row r="246" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G246" t="s">
+      <c r="G246" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="6">
         <v>0.2</v>
       </c>
       <c r="K246">
@@ -8214,10 +8459,10 @@
       </c>
     </row>
     <row r="268" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G268" t="s">
+      <c r="G268" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="5">
         <v>2.1</v>
       </c>
       <c r="K268">
@@ -8326,6 +8571,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C281" xr:uid="{D7D45B7F-8B31-0746-BC64-8511C37F429C}">
+    <sortState ref="A2:C281">
+      <sortCondition ref="A1:A281"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stephanie/cannabis-cocaine-with-years.xlsx
+++ b/Stephanie/cannabis-cocaine-with-years.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="860" windowWidth="25640" windowHeight="14040" activeTab="1" xr2:uid="{F8B35E14-6BFE-0D45-831D-D951129191D3}"/>
+    <workbookView xWindow="4040" yWindow="860" windowWidth="25640" windowHeight="14040" xr2:uid="{F8B35E14-6BFE-0D45-831D-D951129191D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cannabis" sheetId="1" r:id="rId1"/>
     <sheet name="Cocaine" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cannabis!$A$1:$C$276</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cocaine!$A$1:$C$281</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="276">
   <si>
     <t>Country</t>
   </si>
@@ -853,6 +854,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Weed</t>
   </si>
 </sst>
 </file>
@@ -1236,19 +1240,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2DB33-1DBF-CF42-BB5E-C7CEDC31CA1C}">
-  <dimension ref="A1:J275"/>
+  <dimension ref="A1:AA275"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="BB7" sqref="BB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="22.1640625" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="1" max="6" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="14" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="38" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="22.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="24" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="10.83203125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,16 +1281,52 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="B2">
-        <v>2.1</v>
+        <v>4.28</v>
       </c>
       <c r="C2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G2" t="s">
         <v>221</v>
@@ -1287,16 +1337,53 @@
       <c r="I2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L2">
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="M2">
+        <f>VLOOKUP(K2, U:W, 2, FALSE)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2">
+        <v>4.28</v>
+      </c>
+      <c r="Q2">
+        <v>2009</v>
+      </c>
+      <c r="U2" t="s">
+        <v>221</v>
+      </c>
+      <c r="V2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W2">
+        <v>2013</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z2">
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="AA2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>7.1</v>
+        <v>3.59</v>
       </c>
       <c r="C3">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G3" t="s">
         <v>221</v>
@@ -1307,16 +1394,44 @@
       <c r="I3">
         <v>2010</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3">
+        <v>7.0060000419616699</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M36" si="0">VLOOKUP(K3, U:W, 2, FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3">
+        <v>3.59</v>
+      </c>
+      <c r="Q3">
+        <v>2005</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z3">
+        <v>7.0060000419616699</v>
+      </c>
+      <c r="AA3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="B4">
-        <v>9.1</v>
+        <v>1.8</v>
       </c>
       <c r="C4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G4" t="s">
         <v>178</v>
@@ -1327,16 +1442,53 @@
       <c r="I4">
         <v>2008</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4">
+        <v>6.8909997940063477</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4">
+        <v>1.8</v>
+      </c>
+      <c r="Q4">
+        <v>2006</v>
+      </c>
+      <c r="U4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V4">
+        <v>3.5</v>
+      </c>
+      <c r="W4">
+        <v>2008</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z4">
+        <v>6.8909997940063477</v>
+      </c>
+      <c r="AA4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>1.08</v>
+        <v>0.52</v>
       </c>
       <c r="C5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G5" t="s">
         <v>178</v>
@@ -1347,16 +1499,38 @@
       <c r="I5">
         <v>2004</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5">
+        <v>7.3159999847412109</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>0.52</v>
+      </c>
+      <c r="Q5">
+        <v>2010</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z5">
+        <v>7.3159999847412109</v>
+      </c>
+      <c r="AA5">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>3.9</v>
-      </c>
-      <c r="C6">
-        <v>2004</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
         <v>179</v>
@@ -1367,16 +1541,41 @@
       <c r="I6">
         <v>2013</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>240</v>
+      </c>
+      <c r="L6">
+        <v>6.6519999504089355</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>11.83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>220</v>
+      </c>
+      <c r="U6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W6">
+        <v>2013</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z6">
+        <v>6.6519999504089355</v>
+      </c>
+      <c r="AA6">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0.52</v>
-      </c>
-      <c r="C7">
-        <v>2010</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
         <v>179</v>
@@ -1387,16 +1586,32 @@
       <c r="I7">
         <v>2008</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7">
+        <v>6.6090002059936523</v>
+      </c>
+      <c r="M7">
+        <f>P72</f>
+        <v>8.9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z7">
+        <v>6.6090002059936523</v>
+      </c>
+      <c r="AA7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>6.24</v>
-      </c>
-      <c r="C8">
-        <v>2006</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
         <v>96</v>
@@ -1407,16 +1622,41 @@
       <c r="I8">
         <v>2013</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8">
+        <v>7.5219998359680176</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8">
+        <v>12.7</v>
+      </c>
+      <c r="W8">
+        <v>2013</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z8">
+        <v>7.5219998359680176</v>
+      </c>
+      <c r="AA8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>4.22</v>
-      </c>
-      <c r="C9">
-        <v>2004</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>96</v>
@@ -1427,16 +1667,38 @@
       <c r="I9">
         <v>2012</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L9">
+        <v>5.6110000610351562</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z9">
+        <v>5.6110000610351562</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>2.5961382443615131</v>
+        <v>3.2</v>
       </c>
       <c r="C10">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G10" t="s">
         <v>103</v>
@@ -1447,16 +1709,53 @@
       <c r="I10">
         <v>2014</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10">
+        <v>7.4689998626708984</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>3.2</v>
+      </c>
+      <c r="Q10">
+        <v>2011</v>
+      </c>
+      <c r="U10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V10">
+        <v>11.83</v>
+      </c>
+      <c r="W10">
+        <v>2014</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z10">
+        <v>7.4689998626708984</v>
+      </c>
+      <c r="AA10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B11">
-        <v>3.65</v>
+        <v>6.9</v>
       </c>
       <c r="C11">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="G11" t="s">
         <v>103</v>
@@ -1467,16 +1766,44 @@
       <c r="I11">
         <v>2012</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11">
+        <v>6.4419999122619629</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>6.9</v>
+      </c>
+      <c r="Q11">
+        <v>2006</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z11">
+        <v>6.4419999122619629</v>
+      </c>
+      <c r="AA11">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="B12">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="C12">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="G12" t="s">
         <v>183</v>
@@ -1487,16 +1814,47 @@
       <c r="I12">
         <v>2013</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12">
+        <v>6.9510002136230469</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12">
+        <v>3.5</v>
+      </c>
+      <c r="Q12">
+        <v>2003</v>
+      </c>
+      <c r="U12" t="s">
+        <v>183</v>
+      </c>
+      <c r="V12">
+        <v>6.9</v>
+      </c>
+      <c r="W12">
+        <v>2013</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z12">
+        <v>6.9510002136230469</v>
+      </c>
+      <c r="AA12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>9.5</v>
-      </c>
-      <c r="C13">
-        <v>2004</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
         <v>183</v>
@@ -1507,16 +1865,38 @@
       <c r="I13">
         <v>2010</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13">
+        <v>5.2270002365112305</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z13">
+        <v>5.2270002365112305</v>
+      </c>
+      <c r="AA13">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="B14">
-        <v>17.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C14">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="G14" t="s">
         <v>184</v>
@@ -1527,16 +1907,53 @@
       <c r="I14">
         <v>2008</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14">
+        <v>5.3239998817443848</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>2013</v>
+      </c>
+      <c r="U14" t="s">
+        <v>184</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>2008</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z14">
+        <v>5.3239998817443848</v>
+      </c>
+      <c r="AA14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="B15">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="C15">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G15" t="s">
         <v>184</v>
@@ -1547,16 +1964,44 @@
       <c r="I15">
         <v>2003</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15">
+        <v>7.504000186920166</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>221</v>
+      </c>
+      <c r="P15">
+        <v>10.3</v>
+      </c>
+      <c r="Q15">
+        <v>2010</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z15">
+        <v>7.504000186920166</v>
+      </c>
+      <c r="AA15">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="B16">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="C16">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="G16" t="s">
         <v>186</v>
@@ -1567,13 +2012,50 @@
       <c r="I16">
         <v>2010</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>6.9770002365112305</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16">
+        <v>3.5</v>
+      </c>
+      <c r="Q16">
+        <v>2008</v>
+      </c>
+      <c r="U16" t="s">
+        <v>186</v>
+      </c>
+      <c r="V16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W16">
+        <v>2010</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z16">
+        <v>6.9770002365112305</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="B17">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="C17">
         <v>2004</v>
@@ -1587,10 +2069,44 @@
       <c r="I17">
         <v>2006</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17">
+        <v>7.2129998207092285</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="O17" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17">
+        <v>7.5</v>
+      </c>
+      <c r="Q17">
+        <v>2004</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z17">
+        <v>7.2129998207092285</v>
+      </c>
+      <c r="AA17">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>115</v>
+      </c>
+      <c r="B18">
+        <v>3.5</v>
+      </c>
+      <c r="C18">
+        <v>2004</v>
       </c>
       <c r="G18" t="s">
         <v>187</v>
@@ -1601,10 +2117,53 @@
       <c r="I18">
         <v>2014</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>252</v>
+      </c>
+      <c r="L18">
+        <v>5.9640002250671387</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18">
+        <v>3.5</v>
+      </c>
+      <c r="Q18">
+        <v>2004</v>
+      </c>
+      <c r="U18" t="s">
+        <v>187</v>
+      </c>
+      <c r="V18">
+        <v>11.1</v>
+      </c>
+      <c r="W18">
+        <v>2014</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z18">
+        <v>5.9640002250671387</v>
+      </c>
+      <c r="AA18">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>5.54</v>
+      </c>
+      <c r="C19">
+        <v>2008</v>
       </c>
       <c r="G19" t="s">
         <v>187</v>
@@ -1615,10 +2174,44 @@
       <c r="I19">
         <v>2010</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>253</v>
+      </c>
+      <c r="L19">
+        <v>5.9200000762939453</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19">
+        <v>5.54</v>
+      </c>
+      <c r="Q19">
+        <v>2008</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z19">
+        <v>5.9200000762939453</v>
+      </c>
+      <c r="AA19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>4.7</v>
+      </c>
+      <c r="C20">
+        <v>2003</v>
       </c>
       <c r="G20" t="s">
         <v>188</v>
@@ -1629,10 +2222,47 @@
       <c r="I20">
         <v>2012</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20">
+        <v>5.8379998207092285</v>
+      </c>
+      <c r="M20">
+        <f>P204</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20">
+        <v>4.7</v>
+      </c>
+      <c r="Q20">
+        <v>2003</v>
+      </c>
+      <c r="U20" t="s">
+        <v>188</v>
+      </c>
+      <c r="V20">
+        <v>4.5</v>
+      </c>
+      <c r="W20">
+        <v>2012</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z20">
+        <v>5.8379998207092285</v>
+      </c>
+      <c r="AA20">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
         <v>188</v>
@@ -1643,10 +2273,38 @@
       <c r="I21">
         <v>2009</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>255</v>
+      </c>
+      <c r="L21">
+        <v>5.8499999046325684</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z21">
+        <v>5.8499999046325684</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>158</v>
+      </c>
+      <c r="B22">
+        <v>3.3</v>
+      </c>
+      <c r="C22">
+        <v>2004</v>
       </c>
       <c r="G22" t="s">
         <v>190</v>
@@ -1657,10 +2315,53 @@
       <c r="I22">
         <v>2004</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22">
+        <v>6.8629999160766602</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22">
+        <v>3.3</v>
+      </c>
+      <c r="Q22">
+        <v>2004</v>
+      </c>
+      <c r="U22" t="s">
+        <v>190</v>
+      </c>
+      <c r="V22">
+        <v>1.7</v>
+      </c>
+      <c r="W22">
+        <v>2004</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z22">
+        <v>6.8629999160766602</v>
+      </c>
+      <c r="AA22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C23">
+        <v>2006</v>
       </c>
       <c r="G23" t="s">
         <v>192</v>
@@ -1671,10 +2372,53 @@
       <c r="I23">
         <v>2007</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L23">
+        <v>6.5780000686645508</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q23">
+        <v>2006</v>
+      </c>
+      <c r="U23" t="s">
+        <v>192</v>
+      </c>
+      <c r="V23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W23">
+        <v>2007</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z23">
+        <v>6.5780000686645508</v>
+      </c>
+      <c r="AA23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>164</v>
+      </c>
+      <c r="B24">
+        <v>1.07</v>
+      </c>
+      <c r="C24">
+        <v>2007</v>
       </c>
       <c r="G24" t="s">
         <v>193</v>
@@ -1685,10 +2429,53 @@
       <c r="I24">
         <v>2012</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>258</v>
+      </c>
+      <c r="L24">
+        <v>7.3769998550415039</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O24" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24">
+        <v>1.07</v>
+      </c>
+      <c r="Q24">
+        <v>2007</v>
+      </c>
+      <c r="U24" t="s">
+        <v>193</v>
+      </c>
+      <c r="V24">
+        <v>18.3</v>
+      </c>
+      <c r="W24">
+        <v>2012</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z24">
+        <v>7.3769998550415039</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>179</v>
+      </c>
+      <c r="B25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C25">
+        <v>2013</v>
       </c>
       <c r="G25" t="s">
         <v>193</v>
@@ -1699,10 +2486,44 @@
       <c r="I25">
         <v>2011</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>259</v>
+      </c>
+      <c r="L25">
+        <v>7.314000129699707</v>
+      </c>
+      <c r="M25">
+        <f>P182</f>
+        <v>11</v>
+      </c>
+      <c r="O25" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q25">
+        <v>2013</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z25">
+        <v>7.314000129699707</v>
+      </c>
+      <c r="AA25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>179</v>
+      </c>
+      <c r="B26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C26">
+        <v>2008</v>
       </c>
       <c r="G26" t="s">
         <v>194</v>
@@ -1713,10 +2534,53 @@
       <c r="I26">
         <v>2011</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26">
+        <v>7.5370001792907715</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q26">
+        <v>2008</v>
+      </c>
+      <c r="U26" t="s">
+        <v>194</v>
+      </c>
+      <c r="V26">
+        <v>6</v>
+      </c>
+      <c r="W26">
+        <v>2011</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z26">
+        <v>7.5370001792907715</v>
+      </c>
+      <c r="AA26">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C27">
+        <v>2005</v>
       </c>
       <c r="G27" t="s">
         <v>194</v>
@@ -1727,10 +2591,44 @@
       <c r="I27">
         <v>2007</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27">
+        <v>5.9730000495910645</v>
+      </c>
+      <c r="M27">
+        <f>P198</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="Q27">
+        <v>2005</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z27">
+        <v>5.9730000495910645</v>
+      </c>
+      <c r="AA27">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>10.9</v>
+      </c>
+      <c r="C28">
+        <v>2009</v>
       </c>
       <c r="G28" t="s">
         <v>146</v>
@@ -1741,10 +2639,53 @@
       <c r="I28">
         <v>2009</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28">
+        <v>5.195000171661377</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28">
+        <v>10.9</v>
+      </c>
+      <c r="Q28">
+        <v>2009</v>
+      </c>
+      <c r="U28" t="s">
+        <v>146</v>
+      </c>
+      <c r="V28">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="W28">
+        <v>2009</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z28">
+        <v>5.195000171661377</v>
+      </c>
+      <c r="AA28">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>159</v>
+      </c>
+      <c r="B29">
+        <v>4.2</v>
+      </c>
+      <c r="C29">
+        <v>2009</v>
       </c>
       <c r="G29" t="s">
         <v>146</v>
@@ -1755,16 +2696,44 @@
       <c r="I29">
         <v>2005</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29">
+        <v>6.0980000495910645</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>3.63</v>
+      </c>
+      <c r="O29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29">
+        <v>4.2</v>
+      </c>
+      <c r="Q29">
+        <v>2009</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z29">
+        <v>6.0980000495910645</v>
+      </c>
+      <c r="AA29">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B30">
-        <v>3.18</v>
+        <v>1.27</v>
       </c>
       <c r="C30">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="G30" t="s">
         <v>196</v>
@@ -1775,10 +2744,53 @@
       <c r="I30" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30">
+        <v>5.7579998970031738</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30">
+        <v>1.27</v>
+      </c>
+      <c r="Q30">
+        <v>2013</v>
+      </c>
+      <c r="U30" t="s">
+        <v>196</v>
+      </c>
+      <c r="V30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z30">
+        <v>5.7579998970031738</v>
+      </c>
+      <c r="AA30">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>101</v>
+      </c>
+      <c r="B31">
+        <v>4.5</v>
+      </c>
+      <c r="C31">
+        <v>2007</v>
       </c>
       <c r="G31" t="s">
         <v>196</v>
@@ -1789,10 +2801,44 @@
       <c r="I31">
         <v>2012</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31">
+        <v>6.4029998779296875</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31">
+        <v>4.5</v>
+      </c>
+      <c r="Q31">
+        <v>2007</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z31">
+        <v>6.4029998779296875</v>
+      </c>
+      <c r="AA31">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>169</v>
+      </c>
+      <c r="B32">
+        <v>1.6</v>
+      </c>
+      <c r="C32">
+        <v>2011</v>
       </c>
       <c r="G32" t="s">
         <v>130</v>
@@ -1803,129 +2849,329 @@
       <c r="I32">
         <v>2011</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32">
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32">
+        <v>1.6</v>
+      </c>
+      <c r="Q32">
+        <v>2011</v>
+      </c>
+      <c r="U32" t="s">
+        <v>130</v>
+      </c>
+      <c r="V32">
+        <v>0.3</v>
+      </c>
+      <c r="W32">
+        <v>2011</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z32">
+        <v>7.2839999198913574</v>
+      </c>
+      <c r="AA32">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>169</v>
+      </c>
+      <c r="B33">
+        <v>2.8</v>
+      </c>
+      <c r="C33">
+        <v>2007</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H33">
-        <v>0.28999999999999998</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+      <c r="K33" t="s">
+        <v>267</v>
+      </c>
+      <c r="L33">
+        <v>7.4939999580383301</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33">
+        <v>2.8</v>
+      </c>
+      <c r="Q33">
+        <v>2007</v>
+      </c>
+      <c r="U33" t="s">
+        <v>198</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>2011</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z33">
+        <v>7.4939999580383301</v>
+      </c>
+      <c r="AA33">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B34">
-        <v>14.3</v>
+        <v>2.6</v>
       </c>
       <c r="C34">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="G34" t="s">
         <v>198</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I34">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34">
+        <v>5.5</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34">
+        <v>2.6</v>
+      </c>
+      <c r="Q34">
+        <v>2005</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z34">
+        <v>5.5</v>
+      </c>
+      <c r="AA34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H35">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="I35">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+      <c r="K35" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35">
+        <v>6.7140002250671387</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>102</v>
+      </c>
+      <c r="U35" t="s">
+        <v>201</v>
+      </c>
+      <c r="V35">
+        <v>5.2</v>
+      </c>
+      <c r="W35">
+        <v>2010</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z35">
+        <v>6.7140002250671387</v>
+      </c>
+      <c r="AA35">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
         <v>201</v>
       </c>
       <c r="H36">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="I36">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36">
+        <v>6.9930000305175781</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z36">
+        <v>6.9930000305175781</v>
+      </c>
+      <c r="AA36">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="H37">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="I37">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="U37" t="s">
+        <v>97</v>
+      </c>
+      <c r="V37">
+        <v>1.2</v>
+      </c>
+      <c r="W37">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="B38">
-        <v>5.42</v>
+        <v>3.5</v>
       </c>
       <c r="C38">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
       </c>
       <c r="H38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+      <c r="O38" t="s">
+        <v>170</v>
+      </c>
+      <c r="P38">
+        <v>3.5</v>
+      </c>
+      <c r="Q38">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I39">
+        <v>2014</v>
+      </c>
+      <c r="O39" t="s">
+        <v>170</v>
+      </c>
+      <c r="P39">
+        <v>2.5</v>
+      </c>
+      <c r="Q39">
         <v>2008</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>204</v>
+      </c>
+      <c r="V39">
+        <v>8</v>
+      </c>
+      <c r="W39">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="C40">
         <v>2006</v>
@@ -1934,103 +3180,190 @@
         <v>204</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40">
+        <v>2009</v>
+      </c>
+      <c r="O40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40">
+        <v>2.9</v>
+      </c>
+      <c r="Q40">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>2.4</v>
+      </c>
+      <c r="C41">
+        <v>2012</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41">
+        <v>4.2</v>
+      </c>
+      <c r="I41">
         <v>2014</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="I41">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>41</v>
+      </c>
+      <c r="P41">
+        <v>2.4</v>
+      </c>
+      <c r="Q41">
+        <v>2012</v>
+      </c>
+      <c r="U41" t="s">
+        <v>205</v>
+      </c>
+      <c r="V41">
+        <v>4.2</v>
+      </c>
+      <c r="W41">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8.1</v>
+      </c>
+      <c r="C42">
+        <v>2004</v>
       </c>
       <c r="G42" t="s">
         <v>205</v>
       </c>
       <c r="H42">
-        <v>4.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I42">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+      <c r="O42" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42">
+        <v>8.1</v>
+      </c>
+      <c r="Q42">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>123</v>
+      </c>
+      <c r="B43">
+        <v>3.5</v>
+      </c>
+      <c r="C43">
+        <v>2003</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H43">
-        <v>5.0999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="I43">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2012</v>
+      </c>
+      <c r="O43" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43">
+        <v>3.5</v>
+      </c>
+      <c r="Q43">
+        <v>2003</v>
+      </c>
+      <c r="U43" t="s">
+        <v>208</v>
+      </c>
+      <c r="V43">
+        <v>2.7</v>
+      </c>
+      <c r="W43">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44">
-        <v>5.54</v>
-      </c>
-      <c r="C44">
-        <v>2008</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
         <v>208</v>
       </c>
       <c r="H44">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="I44">
+        <v>2007</v>
+      </c>
+      <c r="O44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45">
+        <v>12.7</v>
+      </c>
+      <c r="C45">
+        <v>2013</v>
+      </c>
+      <c r="G45" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I45">
+        <v>2004</v>
+      </c>
+      <c r="O45" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45">
+        <v>12.7</v>
+      </c>
+      <c r="Q45">
+        <v>2013</v>
+      </c>
+      <c r="U45" t="s">
+        <v>136</v>
+      </c>
+      <c r="V45">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W45">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46">
+        <v>12.2</v>
+      </c>
+      <c r="C46">
         <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45">
-        <v>4.7</v>
-      </c>
-      <c r="C45">
-        <v>2003</v>
-      </c>
-      <c r="G45" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45">
-        <v>3.6</v>
-      </c>
-      <c r="I45">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C46">
-        <v>2006</v>
       </c>
       <c r="G46" t="s">
         <v>210</v>
@@ -2041,16 +3374,28 @@
       <c r="I46">
         <v>2010</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46">
+        <v>12.2</v>
+      </c>
+      <c r="Q46">
+        <v>2012</v>
+      </c>
+      <c r="U46" t="s">
+        <v>263</v>
+      </c>
+      <c r="V46">
+        <v>3.63</v>
+      </c>
+      <c r="W46">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47">
-        <v>10.9</v>
-      </c>
-      <c r="C47">
-        <v>2009</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
         <v>210</v>
@@ -2061,10 +3406,13 @@
       <c r="I47">
         <v>2006</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
         <v>211</v>
@@ -2075,10 +3423,22 @@
       <c r="I48">
         <v>2012</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>43</v>
+      </c>
+      <c r="U48" t="s">
+        <v>211</v>
+      </c>
+      <c r="V48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W48">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>211</v>
@@ -2089,10 +3449,13 @@
       <c r="I49">
         <v>2007</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
         <v>212</v>
@@ -2103,10 +3466,28 @@
       <c r="I50">
         <v>2013</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>180</v>
+      </c>
+      <c r="U50" t="s">
+        <v>212</v>
+      </c>
+      <c r="V50">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="W50">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>103</v>
+      </c>
+      <c r="B51">
+        <v>11.83</v>
+      </c>
+      <c r="C51">
+        <v>2014</v>
       </c>
       <c r="G51" t="s">
         <v>212</v>
@@ -2117,10 +3498,25 @@
       <c r="I51">
         <v>2011</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>103</v>
+      </c>
+      <c r="P51">
+        <v>11.83</v>
+      </c>
+      <c r="Q51">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>103</v>
+      </c>
+      <c r="B52">
+        <v>7.47</v>
+      </c>
+      <c r="C52">
+        <v>2012</v>
       </c>
       <c r="G52" t="s">
         <v>213</v>
@@ -2131,16 +3527,28 @@
       <c r="I52">
         <v>2014</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P52">
+        <v>7.47</v>
+      </c>
+      <c r="Q52">
+        <v>2012</v>
+      </c>
+      <c r="U52" t="s">
+        <v>213</v>
+      </c>
+      <c r="V52">
+        <v>2.88</v>
+      </c>
+      <c r="W52">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53">
-        <v>0.31</v>
-      </c>
-      <c r="C53">
-        <v>2008</v>
+        <v>124</v>
       </c>
       <c r="G53" t="s">
         <v>213</v>
@@ -2151,10 +3559,19 @@
       <c r="I53">
         <v>2013</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>125</v>
+      </c>
+      <c r="B54">
+        <v>0.4</v>
+      </c>
+      <c r="C54">
+        <v>2008</v>
       </c>
       <c r="G54" t="s">
         <v>214</v>
@@ -2166,10 +3583,34 @@
         <v>2014</v>
       </c>
       <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>125</v>
+      </c>
+      <c r="P54">
+        <v>0.4</v>
+      </c>
+      <c r="Q54">
+        <v>2008</v>
+      </c>
+      <c r="U54" t="s">
+        <v>214</v>
+      </c>
+      <c r="V54" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="W54" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>125</v>
+      </c>
+      <c r="B55">
+        <v>0.02</v>
+      </c>
+      <c r="C55">
+        <v>2005</v>
       </c>
       <c r="G55" t="s">
         <v>214</v>
@@ -2181,16 +3622,27 @@
         <v>2013</v>
       </c>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55">
+        <v>0.02</v>
+      </c>
+      <c r="Q55">
+        <v>2005</v>
+      </c>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B56">
-        <v>1.51</v>
+        <v>0.67</v>
       </c>
       <c r="C56">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="G56" t="s">
         <v>176</v>
@@ -2202,16 +3654,28 @@
         <v>2011</v>
       </c>
       <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56">
+        <v>0.67</v>
+      </c>
+      <c r="Q56">
+        <v>2003</v>
+      </c>
+      <c r="U56" t="s">
+        <v>176</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W56" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57">
-        <v>1.41</v>
-      </c>
-      <c r="C57">
-        <v>2005</v>
+        <v>222</v>
       </c>
       <c r="G57" t="s">
         <v>176</v>
@@ -2223,16 +3687,15 @@
         <v>2003</v>
       </c>
       <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>222</v>
+      </c>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58">
-        <v>7.21</v>
-      </c>
-      <c r="C58">
-        <v>2010</v>
+        <v>223</v>
       </c>
       <c r="G58" t="s">
         <v>215</v>
@@ -2244,16 +3707,28 @@
         <v>216</v>
       </c>
       <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>223</v>
+      </c>
+      <c r="U58" t="s">
+        <v>271</v>
+      </c>
+      <c r="V58" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B59">
-        <v>9.86</v>
+        <v>3.27</v>
       </c>
       <c r="C59">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="G59" t="s">
         <v>215</v>
@@ -2265,10 +3740,34 @@
         <v>217</v>
       </c>
       <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>104</v>
+      </c>
+      <c r="P59">
+        <v>3.27</v>
+      </c>
+      <c r="Q59">
+        <v>2013</v>
+      </c>
+      <c r="U59" t="s">
+        <v>215</v>
+      </c>
+      <c r="V59" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="B60">
+        <v>2.27</v>
+      </c>
+      <c r="C60">
+        <v>2008</v>
       </c>
       <c r="G60" t="s">
         <v>218</v>
@@ -2280,10 +3779,28 @@
         <v>2011</v>
       </c>
       <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>104</v>
+      </c>
+      <c r="P60">
+        <v>2.27</v>
+      </c>
+      <c r="Q60">
+        <v>2008</v>
+      </c>
+      <c r="U60" t="s">
+        <v>218</v>
+      </c>
+      <c r="V60" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W60" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>218</v>
@@ -2295,16 +3812,22 @@
         <v>2006</v>
       </c>
       <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>45</v>
+      </c>
+      <c r="U61" t="s">
+        <v>218</v>
+      </c>
+      <c r="V61" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W61" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62">
-        <v>4.88</v>
-      </c>
-      <c r="C62">
-        <v>2005</v>
+        <v>224</v>
       </c>
       <c r="G62" t="s">
         <v>219</v>
@@ -2316,10 +3839,28 @@
         <v>217</v>
       </c>
       <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
+        <v>224</v>
+      </c>
+      <c r="U62" t="s">
+        <v>219</v>
+      </c>
+      <c r="V62" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="B63">
+        <v>2.76</v>
+      </c>
+      <c r="C63">
+        <v>2010</v>
       </c>
       <c r="G63" t="s">
         <v>219</v>
@@ -2331,16 +3872,34 @@
         <v>2011</v>
       </c>
       <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63">
+        <v>2.76</v>
+      </c>
+      <c r="Q63">
+        <v>2010</v>
+      </c>
+      <c r="U63" t="s">
+        <v>219</v>
+      </c>
+      <c r="V63" s="2">
+        <v>7</v>
+      </c>
+      <c r="W63" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B64">
-        <v>8.8699999999999992</v>
+        <v>1.02</v>
       </c>
       <c r="C64">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="G64" t="s">
         <v>99</v>
@@ -2352,16 +3911,28 @@
         <v>2014</v>
       </c>
       <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64">
+        <v>1.02</v>
+      </c>
+      <c r="Q64">
+        <v>2006</v>
+      </c>
+      <c r="U64" t="s">
+        <v>274</v>
+      </c>
+      <c r="V64" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="W64">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>2006</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
         <v>99</v>
@@ -2373,2039 +3944,3534 @@
         <v>2013</v>
       </c>
       <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>46</v>
+      </c>
+      <c r="U65" t="s">
+        <v>99</v>
+      </c>
+      <c r="V65" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="W65">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>171</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>2012</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>171</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+      <c r="Q66">
+        <v>2012</v>
+      </c>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B67">
-        <v>4.03</v>
+        <v>5.18</v>
       </c>
       <c r="C67">
+        <v>2007</v>
+      </c>
+      <c r="O67" t="s">
+        <v>171</v>
+      </c>
+      <c r="P67">
+        <v>5.18</v>
+      </c>
+      <c r="Q67">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="O69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C70">
+        <v>2012</v>
+      </c>
+      <c r="O70" t="s">
+        <v>181</v>
+      </c>
+      <c r="P70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q70">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C71">
+        <v>2009</v>
+      </c>
+      <c r="O71" t="s">
+        <v>181</v>
+      </c>
+      <c r="P71">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q71">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72">
+        <v>8.9</v>
+      </c>
+      <c r="C72">
+        <v>2013</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P72" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C73">
+        <v>2012</v>
+      </c>
+      <c r="O73" t="s">
+        <v>182</v>
+      </c>
+      <c r="P73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q73">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="O74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76">
+        <v>6.9</v>
+      </c>
+      <c r="C76">
+        <v>2013</v>
+      </c>
+      <c r="O76" t="s">
+        <v>183</v>
+      </c>
+      <c r="P76">
+        <v>6.9</v>
+      </c>
+      <c r="Q76">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77">
+        <v>5.4</v>
+      </c>
+      <c r="C77">
         <v>2010</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68">
-        <v>4.66</v>
-      </c>
-      <c r="C68">
+      <c r="O77" t="s">
+        <v>183</v>
+      </c>
+      <c r="P77">
+        <v>5.4</v>
+      </c>
+      <c r="Q77">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="O78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <v>0.31</v>
+      </c>
+      <c r="C79">
+        <v>2008</v>
+      </c>
+      <c r="O79" t="s">
+        <v>75</v>
+      </c>
+      <c r="P79">
+        <v>0.31</v>
+      </c>
+      <c r="Q79">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80">
+        <v>0.67</v>
+      </c>
+      <c r="C80">
+        <v>2013</v>
+      </c>
+      <c r="O80" t="s">
+        <v>105</v>
+      </c>
+      <c r="P80">
+        <v>0.67</v>
+      </c>
+      <c r="Q80">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81">
+        <v>0.7</v>
+      </c>
+      <c r="C81">
+        <v>2007</v>
+      </c>
+      <c r="O81" t="s">
+        <v>105</v>
+      </c>
+      <c r="P81">
+        <v>0.7</v>
+      </c>
+      <c r="Q81">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <v>6.24</v>
+      </c>
+      <c r="C82">
         <v>2006</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="C71">
+      <c r="O82" t="s">
+        <v>21</v>
+      </c>
+      <c r="P82">
+        <v>6.24</v>
+      </c>
+      <c r="Q82">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C83">
+        <v>2014</v>
+      </c>
+      <c r="O83" t="s">
+        <v>91</v>
+      </c>
+      <c r="P83">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Q83">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84">
+        <v>0.39</v>
+      </c>
+      <c r="C84">
         <v>2005</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72">
-        <v>2.76</v>
-      </c>
-      <c r="C72">
+      <c r="O84" t="s">
+        <v>91</v>
+      </c>
+      <c r="P84">
+        <v>0.39</v>
+      </c>
+      <c r="Q84">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="O85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>2008</v>
+      </c>
+      <c r="O86" t="s">
+        <v>184</v>
+      </c>
+      <c r="P86">
+        <v>6</v>
+      </c>
+      <c r="Q86">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C87">
+        <v>2003</v>
+      </c>
+      <c r="O87" t="s">
+        <v>184</v>
+      </c>
+      <c r="P87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q87">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="O88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="O89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90">
+        <v>5.08</v>
+      </c>
+      <c r="C90">
+        <v>2004</v>
+      </c>
+      <c r="O90" t="s">
+        <v>225</v>
+      </c>
+      <c r="P90">
+        <v>5.08</v>
+      </c>
+      <c r="Q90">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C91">
         <v>2010</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73">
-        <v>1.02</v>
-      </c>
-      <c r="C73">
+      <c r="O91" t="s">
+        <v>186</v>
+      </c>
+      <c r="P91">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q91">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92">
+        <v>3.6</v>
+      </c>
+      <c r="C92">
         <v>2006</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="C74">
+      <c r="O92" t="s">
+        <v>186</v>
+      </c>
+      <c r="P92">
+        <v>3.6</v>
+      </c>
+      <c r="Q92">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93">
+        <v>11.1</v>
+      </c>
+      <c r="C93">
         <v>2014</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75">
-        <v>0.39</v>
-      </c>
-      <c r="C75">
+      <c r="O93" t="s">
+        <v>187</v>
+      </c>
+      <c r="P93">
+        <v>11.1</v>
+      </c>
+      <c r="Q93">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94">
+        <v>8.4</v>
+      </c>
+      <c r="C94">
+        <v>2010</v>
+      </c>
+      <c r="O94" t="s">
+        <v>187</v>
+      </c>
+      <c r="P94">
+        <v>8.4</v>
+      </c>
+      <c r="Q94">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="O95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>226</v>
+      </c>
+      <c r="O96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="O97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="O98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99">
+        <v>2.7</v>
+      </c>
+      <c r="C99">
+        <v>2009</v>
+      </c>
+      <c r="O99" t="s">
+        <v>116</v>
+      </c>
+      <c r="P99">
+        <v>2.7</v>
+      </c>
+      <c r="Q99">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C100">
         <v>2005</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="O100" t="s">
+        <v>116</v>
+      </c>
+      <c r="P100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q100">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101">
+        <v>4.5</v>
+      </c>
+      <c r="C101">
+        <v>2012</v>
+      </c>
+      <c r="O101" t="s">
+        <v>188</v>
+      </c>
+      <c r="P101">
+        <v>4.5</v>
+      </c>
+      <c r="Q101">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102">
+        <v>4.8</v>
+      </c>
+      <c r="C102">
+        <v>2009</v>
+      </c>
+      <c r="O102" t="s">
+        <v>188</v>
+      </c>
+      <c r="P102">
+        <v>4.8</v>
+      </c>
+      <c r="Q102">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="O103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="O104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105">
+        <v>1.7</v>
+      </c>
+      <c r="C105">
+        <v>2004</v>
+      </c>
+      <c r="O105" t="s">
+        <v>190</v>
+      </c>
+      <c r="P105">
+        <v>1.7</v>
+      </c>
+      <c r="Q105">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106">
+        <v>7.6</v>
+      </c>
+      <c r="C106">
+        <v>2003</v>
+      </c>
+      <c r="O106" t="s">
+        <v>191</v>
+      </c>
+      <c r="P106">
+        <v>7.6</v>
+      </c>
+      <c r="Q106">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>76</v>
+      </c>
+      <c r="O107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="O108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="O109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>92</v>
       </c>
-      <c r="B76">
+      <c r="B110">
         <v>4.8</v>
       </c>
-      <c r="C76">
+      <c r="C110">
         <v>2005</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77">
-        <v>0.83</v>
-      </c>
-      <c r="C77">
+      <c r="O110" t="s">
+        <v>92</v>
+      </c>
+      <c r="P110">
+        <v>4.8</v>
+      </c>
+      <c r="Q110">
         <v>2005</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78">
-        <v>1.5</v>
-      </c>
-      <c r="C78">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79">
-        <v>1.07</v>
-      </c>
-      <c r="C79">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C80">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81">
-        <v>3.55</v>
-      </c>
-      <c r="C81">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82">
-        <v>12.7</v>
-      </c>
-      <c r="C82">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83">
-        <v>12.2</v>
-      </c>
-      <c r="C83">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84">
-        <v>1.2</v>
-      </c>
-      <c r="C84">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87">
-        <v>16.2</v>
-      </c>
-      <c r="C87">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88">
-        <v>15.4</v>
-      </c>
-      <c r="C88">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89">
-        <v>3.2</v>
-      </c>
-      <c r="C89">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90">
-        <v>6.9</v>
-      </c>
-      <c r="C90">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91">
-        <v>1.27</v>
-      </c>
-      <c r="C91">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92">
-        <v>4.5</v>
-      </c>
-      <c r="C92">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94">
-        <v>2.6</v>
-      </c>
-      <c r="C94">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>103</v>
-      </c>
-      <c r="B95">
-        <v>11.83</v>
-      </c>
-      <c r="C95">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96">
-        <v>7.47</v>
-      </c>
-      <c r="C96">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97">
-        <v>3.27</v>
-      </c>
-      <c r="C97">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98">
-        <v>2.27</v>
-      </c>
-      <c r="C98">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99">
-        <v>0.67</v>
-      </c>
-      <c r="C99">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>0.7</v>
-      </c>
-      <c r="C100">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="O111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>108</v>
       </c>
-      <c r="B103">
+      <c r="B113">
         <v>4.04</v>
       </c>
-      <c r="C103">
+      <c r="C113">
         <v>2010</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="O113" t="s">
         <v>108</v>
       </c>
-      <c r="B104">
-        <v>3.5</v>
-      </c>
-      <c r="C104">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105">
-        <v>1.6</v>
-      </c>
-      <c r="C105">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106">
-        <v>1.03</v>
-      </c>
-      <c r="C106">
+      <c r="P113">
+        <v>4.04</v>
+      </c>
+      <c r="Q113">
         <v>2010</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107">
-        <v>0.7</v>
-      </c>
-      <c r="C107">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108">
-        <v>4.25</v>
-      </c>
-      <c r="C108">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C110">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C111">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112">
-        <v>1.56</v>
-      </c>
-      <c r="C112">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <v>0.85</v>
-      </c>
-      <c r="C113">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B114">
         <v>3.5</v>
       </c>
       <c r="C114">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+      <c r="O114" t="s">
+        <v>108</v>
+      </c>
+      <c r="P114">
+        <v>3.5</v>
+      </c>
+      <c r="Q114">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B115">
-        <v>3.5</v>
+        <v>1.51</v>
       </c>
       <c r="C115">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+      <c r="O115" t="s">
+        <v>78</v>
+      </c>
+      <c r="P115">
+        <v>1.51</v>
+      </c>
+      <c r="Q115">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B116">
-        <v>2.7</v>
+        <v>1.41</v>
       </c>
       <c r="C116">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="O116" t="s">
+        <v>78</v>
+      </c>
+      <c r="P116">
+        <v>1.41</v>
+      </c>
+      <c r="Q116">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B117">
-        <v>1.1000000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C117">
         <v>2005</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O117" t="s">
+        <v>93</v>
+      </c>
+      <c r="P117">
+        <v>0.83</v>
+      </c>
+      <c r="Q117">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118">
+        <v>1.5</v>
+      </c>
+      <c r="C118">
+        <v>2004</v>
+      </c>
+      <c r="O118" t="s">
+        <v>93</v>
+      </c>
+      <c r="P118">
+        <v>1.5</v>
+      </c>
+      <c r="Q118">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C119">
+        <v>2007</v>
+      </c>
+      <c r="O119" t="s">
+        <v>192</v>
+      </c>
+      <c r="P119">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q119">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120">
+        <v>18.3</v>
+      </c>
+      <c r="C120">
+        <v>2012</v>
+      </c>
+      <c r="O120" t="s">
+        <v>193</v>
+      </c>
+      <c r="P120">
+        <v>18.3</v>
+      </c>
+      <c r="Q120">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>193</v>
+      </c>
+      <c r="B121">
+        <v>3.4</v>
+      </c>
+      <c r="C121">
+        <v>2011</v>
+      </c>
+      <c r="O121" t="s">
+        <v>193</v>
+      </c>
+      <c r="P121">
+        <v>3.4</v>
+      </c>
+      <c r="Q121">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>160</v>
+      </c>
+      <c r="O122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <v>2010</v>
+      </c>
+      <c r="O123" t="s">
+        <v>129</v>
+      </c>
+      <c r="P123">
+        <v>0.5</v>
+      </c>
+      <c r="Q123">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>0.44</v>
+      </c>
+      <c r="C124">
+        <v>2008</v>
+      </c>
+      <c r="O124" t="s">
+        <v>129</v>
+      </c>
+      <c r="P124">
+        <v>0.44</v>
+      </c>
+      <c r="Q124">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>144</v>
+      </c>
+      <c r="O125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="O126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>2011</v>
+      </c>
+      <c r="O127" t="s">
+        <v>194</v>
+      </c>
+      <c r="P127">
+        <v>6</v>
+      </c>
+      <c r="Q127">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128">
+        <v>6.3</v>
+      </c>
+      <c r="C128">
+        <v>2007</v>
+      </c>
+      <c r="O128" t="s">
+        <v>194</v>
+      </c>
+      <c r="P128">
+        <v>6.3</v>
+      </c>
+      <c r="Q128">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>195</v>
+      </c>
+      <c r="O129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C130">
+        <v>2009</v>
+      </c>
+      <c r="O130" t="s">
+        <v>146</v>
+      </c>
+      <c r="P130">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="Q130">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131">
+        <v>8.5</v>
+      </c>
+      <c r="C131">
+        <v>2005</v>
+      </c>
+      <c r="O131" t="s">
+        <v>146</v>
+      </c>
+      <c r="P131">
+        <v>8.5</v>
+      </c>
+      <c r="Q131">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C132" t="s">
+        <v>197</v>
+      </c>
+      <c r="O132" t="s">
+        <v>196</v>
+      </c>
+      <c r="P132">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>2012</v>
+      </c>
+      <c r="O133" t="s">
+        <v>196</v>
+      </c>
+      <c r="P133">
+        <v>4</v>
+      </c>
+      <c r="Q133">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134">
+        <v>7.21</v>
+      </c>
+      <c r="C134">
+        <v>2010</v>
+      </c>
+      <c r="O134" t="s">
+        <v>79</v>
+      </c>
+      <c r="P134">
+        <v>7.21</v>
+      </c>
+      <c r="Q134">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135">
+        <v>9.86</v>
+      </c>
+      <c r="C135">
+        <v>2006</v>
+      </c>
+      <c r="O135" t="s">
+        <v>79</v>
+      </c>
+      <c r="P135">
+        <v>9.86</v>
+      </c>
+      <c r="Q135">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136">
+        <v>0.3</v>
+      </c>
+      <c r="C136">
+        <v>2011</v>
+      </c>
+      <c r="O136" t="s">
+        <v>130</v>
+      </c>
+      <c r="P136">
+        <v>0.3</v>
+      </c>
+      <c r="Q136">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>147</v>
+      </c>
+      <c r="O137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B138">
         <v>2.4</v>
       </c>
-      <c r="C118">
+      <c r="C138">
         <v>2012</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="O138" t="s">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="P138">
+        <v>2.4</v>
+      </c>
+      <c r="Q138">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139">
         <v>4.2</v>
       </c>
-      <c r="C119">
+      <c r="C139">
         <v>2003</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="O139" t="s">
+        <v>117</v>
+      </c>
+      <c r="P139">
+        <v>4.2</v>
+      </c>
+      <c r="Q139">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140">
+        <v>2.1</v>
+      </c>
+      <c r="C140">
+        <v>2007</v>
+      </c>
+      <c r="O140" t="s">
+        <v>12</v>
+      </c>
+      <c r="P140">
+        <v>2.1</v>
+      </c>
+      <c r="Q140">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>7.1</v>
+      </c>
+      <c r="C141">
+        <v>2004</v>
+      </c>
+      <c r="O141" t="s">
+        <v>12</v>
+      </c>
+      <c r="P141">
+        <v>7.1</v>
+      </c>
+      <c r="Q141">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>227</v>
+      </c>
+      <c r="O142" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>3.1</v>
+      </c>
+      <c r="C143">
+        <v>2005</v>
+      </c>
+      <c r="O143" t="s">
+        <v>148</v>
+      </c>
+      <c r="P143">
+        <v>3.1</v>
+      </c>
+      <c r="Q143">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>4.2</v>
-      </c>
-      <c r="C123">
+      <c r="O144" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>131</v>
+      </c>
+      <c r="B145">
+        <v>0.88</v>
+      </c>
+      <c r="C145">
+        <v>2008</v>
+      </c>
+      <c r="O145" t="s">
+        <v>131</v>
+      </c>
+      <c r="P145">
+        <v>0.88</v>
+      </c>
+      <c r="Q145">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>198</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>2011</v>
+      </c>
+      <c r="O146" t="s">
+        <v>198</v>
+      </c>
+      <c r="P146">
+        <v>4</v>
+      </c>
+      <c r="Q146">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>198</v>
+      </c>
+      <c r="B147">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C147">
+        <v>2007</v>
+      </c>
+      <c r="O147" t="s">
+        <v>198</v>
+      </c>
+      <c r="P147">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q147">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>2009</v>
+      </c>
+      <c r="O148" t="s">
+        <v>149</v>
+      </c>
+      <c r="P148">
+        <v>2</v>
+      </c>
+      <c r="Q148">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>6.4</v>
+      </c>
+      <c r="C149">
+        <v>2001</v>
+      </c>
+      <c r="O149" t="s">
+        <v>149</v>
+      </c>
+      <c r="P149">
+        <v>6.4</v>
+      </c>
+      <c r="Q149">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150">
+        <v>3.18</v>
+      </c>
+      <c r="C150">
+        <v>2008</v>
+      </c>
+      <c r="O150" t="s">
+        <v>54</v>
+      </c>
+      <c r="P150">
+        <v>3.18</v>
+      </c>
+      <c r="Q150">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>199</v>
+      </c>
+      <c r="O151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C152">
+        <v>2012</v>
+      </c>
+      <c r="O152" t="s">
+        <v>200</v>
+      </c>
+      <c r="P152">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q152">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153">
+        <v>5.6</v>
+      </c>
+      <c r="C153">
+        <v>2008</v>
+      </c>
+      <c r="O153" t="s">
+        <v>200</v>
+      </c>
+      <c r="P153">
+        <v>5.6</v>
+      </c>
+      <c r="Q153">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154">
+        <v>5.2</v>
+      </c>
+      <c r="C154">
+        <v>2010</v>
+      </c>
+      <c r="O154" t="s">
+        <v>201</v>
+      </c>
+      <c r="P154">
+        <v>5.2</v>
+      </c>
+      <c r="Q154">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155">
+        <v>6.6</v>
+      </c>
+      <c r="C155">
+        <v>2006</v>
+      </c>
+      <c r="O155" t="s">
+        <v>201</v>
+      </c>
+      <c r="P155">
+        <v>6.6</v>
+      </c>
+      <c r="Q155">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156">
+        <v>9.1</v>
+      </c>
+      <c r="C156">
+        <v>2004</v>
+      </c>
+      <c r="O156" t="s">
+        <v>13</v>
+      </c>
+      <c r="P156">
+        <v>9.1</v>
+      </c>
+      <c r="Q156">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157">
+        <v>1.6</v>
+      </c>
+      <c r="C157">
         <v>2003</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>3.5</v>
-      </c>
-      <c r="C125">
+      <c r="O157" t="s">
+        <v>132</v>
+      </c>
+      <c r="P157">
+        <v>1.6</v>
+      </c>
+      <c r="Q157">
         <v>2003</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>0.4</v>
-      </c>
-      <c r="C127">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128">
-        <v>0.02</v>
-      </c>
-      <c r="C128">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129">
-        <v>0.67</v>
-      </c>
-      <c r="C129">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132">
-        <v>0.5</v>
-      </c>
-      <c r="C132">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133">
-        <v>0.44</v>
-      </c>
-      <c r="C133">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>130</v>
-      </c>
-      <c r="B134">
-        <v>0.3</v>
-      </c>
-      <c r="C134">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>131</v>
-      </c>
-      <c r="B135">
-        <v>0.88</v>
-      </c>
-      <c r="C135">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>132</v>
-      </c>
-      <c r="B136">
-        <v>1.6</v>
-      </c>
-      <c r="C136">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>134</v>
-      </c>
-      <c r="B138">
-        <v>0.94</v>
-      </c>
-      <c r="C138">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>135</v>
-      </c>
-      <c r="B139">
-        <v>0.74</v>
-      </c>
-      <c r="C139">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C140">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142">
-        <v>0.3</v>
-      </c>
-      <c r="C142">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143">
-        <v>1.2</v>
-      </c>
-      <c r="C143">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146">
-        <v>4.28</v>
-      </c>
-      <c r="C146">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B147">
-        <v>3.59</v>
-      </c>
-      <c r="C147">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>146</v>
-      </c>
-      <c r="B151">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="C151">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>146</v>
-      </c>
-      <c r="B152">
-        <v>8.5</v>
-      </c>
-      <c r="C152">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>148</v>
-      </c>
-      <c r="B154">
-        <v>3.1</v>
-      </c>
-      <c r="C154">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>149</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-      <c r="C155">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>149</v>
-      </c>
-      <c r="B156">
-        <v>6.4</v>
-      </c>
-      <c r="C156">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B158">
-        <v>3.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C158">
         <v>2012</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O158" t="s">
+        <v>161</v>
+      </c>
+      <c r="P158">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q158">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>151</v>
-      </c>
-      <c r="B159">
+        <v>55</v>
+      </c>
+      <c r="O159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160">
+        <v>0.9</v>
+      </c>
+      <c r="C160">
+        <v>2013</v>
+      </c>
+      <c r="O160" t="s">
+        <v>202</v>
+      </c>
+      <c r="P160">
+        <v>0.9</v>
+      </c>
+      <c r="Q160">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161">
+        <v>3.1</v>
+      </c>
+      <c r="C161">
+        <v>2011</v>
+      </c>
+      <c r="O161" t="s">
+        <v>202</v>
+      </c>
+      <c r="P161">
+        <v>3.1</v>
+      </c>
+      <c r="Q161">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>228</v>
+      </c>
+      <c r="O162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>80</v>
+      </c>
+      <c r="O163" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="O164" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165">
+        <v>1.08</v>
+      </c>
+      <c r="C165">
+        <v>2009</v>
+      </c>
+      <c r="O165" t="s">
+        <v>14</v>
+      </c>
+      <c r="P165">
+        <v>1.08</v>
+      </c>
+      <c r="Q165">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166">
         <v>3.9</v>
-      </c>
-      <c r="C159">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>153</v>
-      </c>
-      <c r="B161">
-        <v>0.3</v>
-      </c>
-      <c r="C161">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>156</v>
-      </c>
-      <c r="B164">
-        <v>5.35</v>
-      </c>
-      <c r="C164">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>158</v>
-      </c>
-      <c r="B166">
-        <v>3.3</v>
       </c>
       <c r="C166">
         <v>2004</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O166" t="s">
+        <v>14</v>
+      </c>
+      <c r="P166">
+        <v>3.9</v>
+      </c>
+      <c r="Q166">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="B167">
+        <v>1.2</v>
+      </c>
+      <c r="C167">
+        <v>2011</v>
+      </c>
+      <c r="O167" t="s">
+        <v>97</v>
+      </c>
+      <c r="P167">
+        <v>1.2</v>
+      </c>
+      <c r="Q167">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>2008</v>
+      </c>
+      <c r="O168" t="s">
+        <v>97</v>
+      </c>
+      <c r="P168">
+        <v>1</v>
+      </c>
+      <c r="Q168">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>229</v>
+      </c>
+      <c r="O169" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>203</v>
+      </c>
+      <c r="O170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>133</v>
+      </c>
+      <c r="O171" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>1.9</v>
+      </c>
+      <c r="C172">
+        <v>2011</v>
+      </c>
+      <c r="O172" t="s">
+        <v>172</v>
+      </c>
+      <c r="P172">
+        <v>1.9</v>
+      </c>
+      <c r="Q172">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.23</v>
+      </c>
+      <c r="C173">
+        <v>2008</v>
+      </c>
+      <c r="O173" t="s">
+        <v>172</v>
+      </c>
+      <c r="P173">
+        <v>0.23</v>
+      </c>
+      <c r="Q173">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>81</v>
+      </c>
+      <c r="O174" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175">
+        <v>4.22</v>
+      </c>
+      <c r="C175">
+        <v>2004</v>
+      </c>
+      <c r="O175" t="s">
+        <v>23</v>
+      </c>
+      <c r="P175">
+        <v>4.22</v>
+      </c>
+      <c r="Q175">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176">
+        <v>0.94</v>
+      </c>
+      <c r="C176">
+        <v>2005</v>
+      </c>
+      <c r="O176" t="s">
+        <v>134</v>
+      </c>
+      <c r="P176">
+        <v>0.94</v>
+      </c>
+      <c r="Q176">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>230</v>
+      </c>
+      <c r="O177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>162</v>
+      </c>
+      <c r="O178" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>2014</v>
+      </c>
+      <c r="O179" t="s">
+        <v>204</v>
+      </c>
+      <c r="P179">
+        <v>8</v>
+      </c>
+      <c r="Q179">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>204</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>2009</v>
+      </c>
+      <c r="O180" t="s">
+        <v>204</v>
+      </c>
+      <c r="P180">
+        <v>7</v>
+      </c>
+      <c r="Q180">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>231</v>
+      </c>
+      <c r="O181" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>232</v>
+      </c>
+      <c r="B182">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>2013</v>
+      </c>
+      <c r="O182" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="P182" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q182" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>232</v>
+      </c>
+      <c r="B183">
+        <v>14.6</v>
+      </c>
+      <c r="C183">
+        <v>2008</v>
+      </c>
+      <c r="O183" t="s">
+        <v>232</v>
+      </c>
+      <c r="P183">
+        <v>14.6</v>
+      </c>
+      <c r="Q183">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184">
+        <v>1.07</v>
+      </c>
+      <c r="C184">
+        <v>2006</v>
+      </c>
+      <c r="O184" t="s">
+        <v>94</v>
+      </c>
+      <c r="P184">
+        <v>1.07</v>
+      </c>
+      <c r="Q184">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>94</v>
+      </c>
+      <c r="B185">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C185">
+        <v>2002</v>
+      </c>
+      <c r="O185" t="s">
+        <v>94</v>
+      </c>
+      <c r="P185">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q185">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>57</v>
+      </c>
+      <c r="O186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187">
+        <v>14.3</v>
+      </c>
+      <c r="C187">
+        <v>2008</v>
+      </c>
+      <c r="O187" t="s">
+        <v>58</v>
+      </c>
+      <c r="P187">
+        <v>14.3</v>
+      </c>
+      <c r="Q187">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>205</v>
+      </c>
+      <c r="B188">
         <v>4.2</v>
       </c>
-      <c r="C167">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>161</v>
-      </c>
-      <c r="B169">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C169">
+      <c r="C188">
+        <v>2014</v>
+      </c>
+      <c r="O188" t="s">
+        <v>205</v>
+      </c>
+      <c r="P188">
+        <v>4.2</v>
+      </c>
+      <c r="Q188">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>205</v>
+      </c>
+      <c r="B189">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C189">
+        <v>2013</v>
+      </c>
+      <c r="O189" t="s">
+        <v>205</v>
+      </c>
+      <c r="P189">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q189">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>150</v>
+      </c>
+      <c r="O190" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>151</v>
+      </c>
+      <c r="B191">
+        <v>3.6</v>
+      </c>
+      <c r="C191">
         <v>2012</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>163</v>
-      </c>
-      <c r="B171">
-        <v>1.43</v>
-      </c>
-      <c r="C171">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>164</v>
-      </c>
-      <c r="B172">
-        <v>1.07</v>
-      </c>
-      <c r="C172">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>165</v>
-      </c>
-      <c r="B173">
-        <v>0.7</v>
-      </c>
-      <c r="C173">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>165</v>
-      </c>
-      <c r="B174">
-        <v>0.9</v>
-      </c>
-      <c r="C174">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>166</v>
-      </c>
-      <c r="B175">
-        <v>3.49</v>
-      </c>
-      <c r="C175">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>167</v>
-      </c>
-      <c r="B176">
-        <v>2.9</v>
-      </c>
-      <c r="C176">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>167</v>
-      </c>
-      <c r="B177">
-        <v>2.5</v>
-      </c>
-      <c r="C177">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>168</v>
-      </c>
-      <c r="B178">
-        <v>1.8</v>
-      </c>
-      <c r="C178">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>169</v>
-      </c>
-      <c r="B179">
-        <v>1.6</v>
-      </c>
-      <c r="C179">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>169</v>
-      </c>
-      <c r="B180">
-        <v>2.8</v>
-      </c>
-      <c r="C180">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>170</v>
-      </c>
-      <c r="B181">
-        <v>3.5</v>
-      </c>
-      <c r="C181">
+      <c r="O191" t="s">
+        <v>151</v>
+      </c>
+      <c r="P191">
+        <v>3.6</v>
+      </c>
+      <c r="Q191">
         <v>2012</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>170</v>
-      </c>
-      <c r="B182">
-        <v>2.5</v>
-      </c>
-      <c r="C182">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>171</v>
-      </c>
-      <c r="B183">
-        <v>5</v>
-      </c>
-      <c r="C183">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>171</v>
-      </c>
-      <c r="B184">
-        <v>5.18</v>
-      </c>
-      <c r="C184">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>172</v>
-      </c>
-      <c r="B185">
-        <v>1.9</v>
-      </c>
-      <c r="C185">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>172</v>
-      </c>
-      <c r="B186">
-        <v>0.23</v>
-      </c>
-      <c r="C186">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>173</v>
-      </c>
-      <c r="B187">
-        <v>2</v>
-      </c>
-      <c r="C187">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>173</v>
-      </c>
-      <c r="B188">
-        <v>0.3</v>
-      </c>
-      <c r="C188">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>174</v>
-      </c>
-      <c r="B189">
-        <v>1.6</v>
-      </c>
-      <c r="C189">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>174</v>
-      </c>
-      <c r="B190">
-        <v>4.07</v>
-      </c>
-      <c r="C190">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>175</v>
-      </c>
-      <c r="B191">
-        <v>0.63</v>
-      </c>
-      <c r="C191">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B192">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="C192">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="O192" t="s">
+        <v>151</v>
+      </c>
+      <c r="P192">
+        <v>3.9</v>
+      </c>
+      <c r="Q192">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B193">
-        <v>1.9</v>
+        <v>3.55</v>
       </c>
       <c r="C193">
         <v>2003</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O193" t="s">
+        <v>95</v>
+      </c>
+      <c r="P193">
+        <v>3.55</v>
+      </c>
+      <c r="Q193">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="B194">
+        <v>1.6</v>
+      </c>
+      <c r="C194">
+        <v>2005</v>
+      </c>
+      <c r="O194" t="s">
+        <v>109</v>
+      </c>
+      <c r="P194">
+        <v>1.6</v>
+      </c>
+      <c r="Q194">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="B195">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="C195">
+        <v>2010</v>
+      </c>
+      <c r="O195" t="s">
+        <v>110</v>
+      </c>
+      <c r="P195">
+        <v>1.03</v>
+      </c>
+      <c r="Q195">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>110</v>
+      </c>
+      <c r="B196">
+        <v>0.7</v>
+      </c>
+      <c r="C196">
+        <v>2006</v>
+      </c>
+      <c r="O196" t="s">
+        <v>110</v>
+      </c>
+      <c r="P196">
+        <v>0.7</v>
+      </c>
+      <c r="Q196">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197">
+        <v>0.74</v>
+      </c>
+      <c r="C197">
         <v>2008</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>178</v>
-      </c>
-      <c r="B196">
-        <v>7.5</v>
-      </c>
-      <c r="C196">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>179</v>
-      </c>
-      <c r="B197">
+      <c r="O197" t="s">
+        <v>135</v>
+      </c>
+      <c r="P197">
+        <v>0.74</v>
+      </c>
+      <c r="Q197">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C197">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>179</v>
-      </c>
-      <c r="B198">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C198">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>207</v>
+      </c>
+      <c r="O198" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P198" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q198" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="B199">
+        <v>3.8</v>
+      </c>
+      <c r="C199">
+        <v>2012</v>
+      </c>
+      <c r="O199" t="s">
+        <v>206</v>
+      </c>
+      <c r="P199">
+        <v>3.8</v>
+      </c>
+      <c r="Q199">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B200">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="C200">
         <v>2012</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O200" t="s">
+        <v>208</v>
+      </c>
+      <c r="P200">
+        <v>2.7</v>
+      </c>
+      <c r="Q200">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B201">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="C201">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+      <c r="O201" t="s">
+        <v>208</v>
+      </c>
+      <c r="P201">
+        <v>3.6</v>
+      </c>
+      <c r="Q201">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="B202">
-        <v>8.9</v>
+        <v>4.88</v>
       </c>
       <c r="C202">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="O202" t="s">
+        <v>82</v>
+      </c>
+      <c r="P202">
+        <v>4.88</v>
+      </c>
+      <c r="Q202">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>182</v>
-      </c>
-      <c r="B203">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C203">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="O203" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B204">
-        <v>6.9</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C204">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+      <c r="O204" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P204" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q204" s="5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B205">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="C205">
         <v>2010</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O205" t="s">
+        <v>165</v>
+      </c>
+      <c r="P205">
+        <v>0.7</v>
+      </c>
+      <c r="Q205">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="C206">
         <v>2008</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O206" t="s">
+        <v>165</v>
+      </c>
+      <c r="P206">
+        <v>0.9</v>
+      </c>
+      <c r="Q206">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B207">
-        <v>4.5999999999999996</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+      <c r="O207" t="s">
+        <v>173</v>
+      </c>
+      <c r="P207">
+        <v>2</v>
+      </c>
+      <c r="Q207">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="B208">
+        <v>0.3</v>
+      </c>
+      <c r="C208">
+        <v>2010</v>
+      </c>
+      <c r="O208" t="s">
+        <v>173</v>
+      </c>
+      <c r="P208">
+        <v>0.3</v>
+      </c>
+      <c r="Q208">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B209">
-        <v>4.5999999999999996</v>
+        <v>3.49</v>
       </c>
       <c r="C209">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+      <c r="O209" t="s">
+        <v>166</v>
+      </c>
+      <c r="P209">
+        <v>3.49</v>
+      </c>
+      <c r="Q209">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>186</v>
-      </c>
-      <c r="B210">
-        <v>3.6</v>
-      </c>
-      <c r="C210">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="O210" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>187</v>
-      </c>
-      <c r="B211">
-        <v>11.1</v>
-      </c>
-      <c r="C211">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="O211" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="B212">
-        <v>8.4</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="C212">
         <v>2010</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O212" t="s">
+        <v>84</v>
+      </c>
+      <c r="P212">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="Q212">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="B213">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C213">
+        <v>2006</v>
+      </c>
+      <c r="O213" t="s">
+        <v>84</v>
+      </c>
+      <c r="P213">
+        <v>9</v>
+      </c>
+      <c r="Q213">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>98</v>
+      </c>
+      <c r="O214" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>85</v>
+      </c>
+      <c r="O215" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>209</v>
+      </c>
+      <c r="O216" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>60</v>
+      </c>
+      <c r="O217" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>153</v>
+      </c>
+      <c r="B218">
+        <v>0.3</v>
+      </c>
+      <c r="C218">
+        <v>2006</v>
+      </c>
+      <c r="O218" t="s">
+        <v>153</v>
+      </c>
+      <c r="P218">
+        <v>0.3</v>
+      </c>
+      <c r="Q218">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>61</v>
+      </c>
+      <c r="O219" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>174</v>
+      </c>
+      <c r="B220">
+        <v>1.6</v>
+      </c>
+      <c r="C220">
+        <v>2014</v>
+      </c>
+      <c r="O220" t="s">
+        <v>174</v>
+      </c>
+      <c r="P220">
+        <v>1.6</v>
+      </c>
+      <c r="Q220">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>174</v>
+      </c>
+      <c r="B221">
+        <v>4.07</v>
+      </c>
+      <c r="C221">
+        <v>2006</v>
+      </c>
+      <c r="O221" t="s">
+        <v>174</v>
+      </c>
+      <c r="P221">
+        <v>4.07</v>
+      </c>
+      <c r="Q221">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>62</v>
+      </c>
+      <c r="B222">
+        <v>5.42</v>
+      </c>
+      <c r="C222">
+        <v>2010</v>
+      </c>
+      <c r="O222" t="s">
+        <v>62</v>
+      </c>
+      <c r="P222">
+        <v>5.42</v>
+      </c>
+      <c r="Q222">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>137</v>
+      </c>
+      <c r="O223" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>210</v>
+      </c>
+      <c r="B224">
+        <v>3.63</v>
+      </c>
+      <c r="C224">
+        <v>2010</v>
+      </c>
+      <c r="O224" t="s">
+        <v>210</v>
+      </c>
+      <c r="P224">
+        <v>3.63</v>
+      </c>
+      <c r="Q224">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>210</v>
+      </c>
+      <c r="B225">
+        <v>6.9</v>
+      </c>
+      <c r="C225">
+        <v>2006</v>
+      </c>
+      <c r="O225" t="s">
+        <v>210</v>
+      </c>
+      <c r="P225">
+        <v>6.9</v>
+      </c>
+      <c r="Q225">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>211</v>
+      </c>
+      <c r="B226">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C226">
         <v>2012</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>188</v>
-      </c>
-      <c r="B214">
-        <v>4.8</v>
-      </c>
-      <c r="C214">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>190</v>
-      </c>
-      <c r="B216">
-        <v>1.7</v>
-      </c>
-      <c r="C216">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>191</v>
-      </c>
-      <c r="B217">
-        <v>7.6</v>
-      </c>
-      <c r="C217">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>192</v>
-      </c>
-      <c r="B218">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C218">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>193</v>
-      </c>
-      <c r="B219">
-        <v>18.3</v>
-      </c>
-      <c r="C219">
+      <c r="O226" t="s">
+        <v>211</v>
+      </c>
+      <c r="P226">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q226">
         <v>2012</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>193</v>
-      </c>
-      <c r="B220">
-        <v>3.4</v>
-      </c>
-      <c r="C220">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>194</v>
-      </c>
-      <c r="B221">
-        <v>6</v>
-      </c>
-      <c r="C221">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>194</v>
-      </c>
-      <c r="B222">
-        <v>6.3</v>
-      </c>
-      <c r="C222">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>196</v>
-      </c>
-      <c r="B224">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C224" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>196</v>
-      </c>
-      <c r="B225">
-        <v>4</v>
-      </c>
-      <c r="C225">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>198</v>
-      </c>
-      <c r="B226">
-        <v>4</v>
-      </c>
-      <c r="C226">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B227">
-        <v>4.9000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="C227">
         <v>2007</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O227" t="s">
+        <v>211</v>
+      </c>
+      <c r="P227">
+        <v>3.1</v>
+      </c>
+      <c r="Q227">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B228">
+        <v>3.65</v>
+      </c>
+      <c r="C228">
+        <v>2011</v>
+      </c>
+      <c r="O228" t="s">
+        <v>35</v>
+      </c>
+      <c r="P228">
+        <v>3.65</v>
+      </c>
+      <c r="Q228">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="B229">
-        <v>2.2999999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="C229">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+      <c r="O229" t="s">
+        <v>35</v>
+      </c>
+      <c r="P229">
+        <v>4.26</v>
+      </c>
+      <c r="Q229">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B230">
-        <v>5.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C230">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+      <c r="O230" t="s">
+        <v>212</v>
+      </c>
+      <c r="P230">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q230">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B231">
-        <v>5.2</v>
+        <v>9.6</v>
       </c>
       <c r="C231">
+        <v>2011</v>
+      </c>
+      <c r="O231" t="s">
+        <v>212</v>
+      </c>
+      <c r="P231">
+        <v>9.6</v>
+      </c>
+      <c r="Q231">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>163</v>
+      </c>
+      <c r="B232">
+        <v>1.43</v>
+      </c>
+      <c r="C232">
         <v>2010</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>201</v>
-      </c>
-      <c r="B232">
-        <v>6.6</v>
-      </c>
-      <c r="C232">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O232" t="s">
+        <v>163</v>
+      </c>
+      <c r="P232">
+        <v>1.43</v>
+      </c>
+      <c r="Q232">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>202</v>
-      </c>
-      <c r="B233">
-        <v>0.9</v>
-      </c>
-      <c r="C233">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="O233" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="B234">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="C234">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+      <c r="O234" t="s">
+        <v>111</v>
+      </c>
+      <c r="P234">
+        <v>4.25</v>
+      </c>
+      <c r="Q234">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
+        <v>2002</v>
+      </c>
+      <c r="O235" t="s">
+        <v>111</v>
+      </c>
+      <c r="P235">
+        <v>2</v>
+      </c>
+      <c r="Q235">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>2.88</v>
       </c>
       <c r="C236">
         <v>2014</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O236" t="s">
+        <v>213</v>
+      </c>
+      <c r="P236">
+        <v>2.88</v>
+      </c>
+      <c r="Q236">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>3.16</v>
       </c>
       <c r="C237">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+      <c r="O237" t="s">
+        <v>213</v>
+      </c>
+      <c r="P237">
+        <v>3.16</v>
+      </c>
+      <c r="Q237">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B238">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="C238">
         <v>2014</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O238" t="s">
+        <v>214</v>
+      </c>
+      <c r="P238">
+        <v>6.7</v>
+      </c>
+      <c r="Q238">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B239">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="C239">
         <v>2013</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O239" t="s">
+        <v>214</v>
+      </c>
+      <c r="P239">
+        <v>5.7</v>
+      </c>
+      <c r="Q239">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>206</v>
-      </c>
-      <c r="B240">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C240" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="O240" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="B241">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="C241">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="O241" t="s">
+        <v>138</v>
+      </c>
+      <c r="P241">
+        <v>0.3</v>
+      </c>
+      <c r="Q241">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>208</v>
-      </c>
-      <c r="B242">
-        <v>2.7</v>
-      </c>
-      <c r="C242">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="O242" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="B243">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="C243">
         <v>2007</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O243" t="s">
+        <v>139</v>
+      </c>
+      <c r="P243">
+        <v>1.2</v>
+      </c>
+      <c r="Q243">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="B244">
+        <v>0.63</v>
+      </c>
+      <c r="C244">
+        <v>2008</v>
+      </c>
+      <c r="O244" t="s">
+        <v>175</v>
+      </c>
+      <c r="P244">
+        <v>0.63</v>
+      </c>
+      <c r="Q244">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>210</v>
-      </c>
-      <c r="B245">
-        <v>3.63</v>
-      </c>
-      <c r="C245">
+        <v>140</v>
+      </c>
+      <c r="O245" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>63</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>2009</v>
+      </c>
+      <c r="O246" t="s">
+        <v>63</v>
+      </c>
+      <c r="P246">
+        <v>1</v>
+      </c>
+      <c r="Q246">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>63</v>
+      </c>
+      <c r="B247">
+        <v>2.73</v>
+      </c>
+      <c r="C247">
+        <v>2006</v>
+      </c>
+      <c r="O247" t="s">
+        <v>63</v>
+      </c>
+      <c r="P247">
+        <v>2.73</v>
+      </c>
+      <c r="Q247">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>86</v>
+      </c>
+      <c r="B248">
+        <v>4.03</v>
+      </c>
+      <c r="C248">
         <v>2010</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>210</v>
-      </c>
-      <c r="B246">
-        <v>6.9</v>
-      </c>
-      <c r="C246">
+      <c r="O248" t="s">
+        <v>86</v>
+      </c>
+      <c r="P248">
+        <v>4.03</v>
+      </c>
+      <c r="Q248">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>86</v>
+      </c>
+      <c r="B249">
+        <v>4.66</v>
+      </c>
+      <c r="C249">
         <v>2006</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>211</v>
-      </c>
-      <c r="B247">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C247">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>211</v>
-      </c>
-      <c r="B248">
-        <v>3.1</v>
-      </c>
-      <c r="C248">
+      <c r="O249" t="s">
+        <v>86</v>
+      </c>
+      <c r="P249">
+        <v>4.66</v>
+      </c>
+      <c r="Q249">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>26</v>
+      </c>
+      <c r="B250">
+        <v>2.5961382443615131</v>
+      </c>
+      <c r="C250">
+        <v>2013</v>
+      </c>
+      <c r="O250" t="s">
+        <v>26</v>
+      </c>
+      <c r="P250">
+        <v>2.5961382443615131</v>
+      </c>
+      <c r="Q250">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>176</v>
+      </c>
+      <c r="B251">
+        <v>0.3</v>
+      </c>
+      <c r="C251">
+        <v>2011</v>
+      </c>
+      <c r="O251" t="s">
+        <v>176</v>
+      </c>
+      <c r="P251">
+        <v>0.3</v>
+      </c>
+      <c r="Q251">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>176</v>
+      </c>
+      <c r="B252">
+        <v>1.9</v>
+      </c>
+      <c r="C252">
+        <v>2003</v>
+      </c>
+      <c r="O252" t="s">
+        <v>176</v>
+      </c>
+      <c r="P252">
+        <v>1.9</v>
+      </c>
+      <c r="Q252">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>120</v>
+      </c>
+      <c r="O253" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>87</v>
+      </c>
+      <c r="O254" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>167</v>
+      </c>
+      <c r="B255">
+        <v>2.9</v>
+      </c>
+      <c r="C255">
+        <v>2011</v>
+      </c>
+      <c r="O255" t="s">
+        <v>167</v>
+      </c>
+      <c r="P255">
+        <v>2.9</v>
+      </c>
+      <c r="Q255">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>167</v>
+      </c>
+      <c r="B256">
+        <v>2.5</v>
+      </c>
+      <c r="C256">
         <v>2007</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>212</v>
-      </c>
-      <c r="B249">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C249">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>212</v>
-      </c>
-      <c r="B250">
-        <v>9.6</v>
-      </c>
-      <c r="C250">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>213</v>
-      </c>
-      <c r="B251">
-        <v>2.88</v>
-      </c>
-      <c r="C251">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>213</v>
-      </c>
-      <c r="B252">
-        <v>3.16</v>
-      </c>
-      <c r="C252">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>214</v>
-      </c>
-      <c r="B253">
-        <v>6.7</v>
-      </c>
-      <c r="C253">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>214</v>
-      </c>
-      <c r="B254">
-        <v>5.7</v>
-      </c>
-      <c r="C254">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+      <c r="O256" t="s">
+        <v>167</v>
+      </c>
+      <c r="P256">
+        <v>2.5</v>
+      </c>
+      <c r="Q256">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>156</v>
+      </c>
+      <c r="B257">
+        <v>5.35</v>
+      </c>
+      <c r="C257">
+        <v>2006</v>
+      </c>
+      <c r="O257" t="s">
+        <v>156</v>
+      </c>
+      <c r="P257">
+        <v>5.35</v>
+      </c>
+      <c r="Q257">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>215</v>
       </c>
-      <c r="B255">
+      <c r="B258">
         <v>6.6</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C258" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+      <c r="O258" t="s">
         <v>215</v>
       </c>
-      <c r="B256">
+      <c r="P258">
+        <v>6.6</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>215</v>
+      </c>
+      <c r="B259">
         <v>6.4</v>
-      </c>
-      <c r="C256" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>218</v>
-      </c>
-      <c r="B257">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C257">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>218</v>
-      </c>
-      <c r="B258">
-        <v>7.2</v>
-      </c>
-      <c r="C258">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>219</v>
-      </c>
-      <c r="B259">
-        <v>6.5</v>
       </c>
       <c r="C259" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O259" t="s">
+        <v>215</v>
+      </c>
+      <c r="P259">
+        <v>6.4</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B260">
-        <v>7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C260">
         <v>2011</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O260" t="s">
+        <v>218</v>
+      </c>
+      <c r="P260">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q260">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="B261">
+        <v>7.2</v>
+      </c>
+      <c r="C261">
+        <v>2006</v>
+      </c>
+      <c r="O261" t="s">
+        <v>218</v>
+      </c>
+      <c r="P261">
+        <v>7.2</v>
+      </c>
+      <c r="Q261">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B262">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C262">
+        <v>6.5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>217</v>
+      </c>
+      <c r="O262" t="s">
+        <v>219</v>
+      </c>
+      <c r="P262">
+        <v>6.5</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>219</v>
+      </c>
+      <c r="B263">
+        <v>7</v>
+      </c>
+      <c r="C263">
+        <v>2011</v>
+      </c>
+      <c r="O263" t="s">
+        <v>219</v>
+      </c>
+      <c r="P263">
+        <v>7</v>
+      </c>
+      <c r="Q263">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>99</v>
+      </c>
+      <c r="B264">
+        <v>16.2</v>
+      </c>
+      <c r="C264">
+        <v>2014</v>
+      </c>
+      <c r="O264" t="s">
+        <v>99</v>
+      </c>
+      <c r="P264">
+        <v>16.2</v>
+      </c>
+      <c r="Q264">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>99</v>
+      </c>
+      <c r="B265">
+        <v>15.4</v>
+      </c>
+      <c r="C265">
         <v>2013</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>221</v>
-      </c>
-      <c r="B263">
-        <v>10.3</v>
-      </c>
-      <c r="C263">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O265" t="s">
+        <v>99</v>
+      </c>
+      <c r="P265">
+        <v>15.4</v>
+      </c>
+      <c r="Q265">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="O266" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="B267">
-        <v>5.08</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C267">
+        <v>2014</v>
+      </c>
+      <c r="O267" t="s">
+        <v>112</v>
+      </c>
+      <c r="P267">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q267">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>112</v>
+      </c>
+      <c r="B268">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C268">
+        <v>2011</v>
+      </c>
+      <c r="O268" t="s">
+        <v>112</v>
+      </c>
+      <c r="P268">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q268">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>121</v>
+      </c>
+      <c r="B269">
+        <v>4.2</v>
+      </c>
+      <c r="C269">
+        <v>2003</v>
+      </c>
+      <c r="O269" t="s">
+        <v>121</v>
+      </c>
+      <c r="P269">
+        <v>4.2</v>
+      </c>
+      <c r="Q269">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>113</v>
+      </c>
+      <c r="B270">
+        <v>1.56</v>
+      </c>
+      <c r="C270">
+        <v>2011</v>
+      </c>
+      <c r="O270" t="s">
+        <v>113</v>
+      </c>
+      <c r="P270">
+        <v>1.56</v>
+      </c>
+      <c r="Q270">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>113</v>
+      </c>
+      <c r="B271">
+        <v>0.85</v>
+      </c>
+      <c r="C271">
+        <v>2005</v>
+      </c>
+      <c r="O271" t="s">
+        <v>113</v>
+      </c>
+      <c r="P271">
+        <v>0.85</v>
+      </c>
+      <c r="Q271">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>141</v>
+      </c>
+      <c r="O272" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>157</v>
+      </c>
+      <c r="O273" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>37</v>
+      </c>
+      <c r="B274">
+        <v>9.5</v>
+      </c>
+      <c r="C274">
         <v>2004</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>232</v>
-      </c>
-      <c r="B274">
-        <v>11</v>
-      </c>
-      <c r="C274">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O274" t="s">
+        <v>37</v>
+      </c>
+      <c r="P274">
+        <v>9.5</v>
+      </c>
+      <c r="Q274">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="B275">
-        <v>14.6</v>
+        <v>17.7</v>
       </c>
       <c r="C275">
-        <v>2008</v>
+        <v>2003</v>
+      </c>
+      <c r="O275" t="s">
+        <v>37</v>
+      </c>
+      <c r="P275">
+        <v>17.7</v>
+      </c>
+      <c r="Q275">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C276" xr:uid="{0B56756E-8C44-EB43-9E5B-175D8F313D71}">
+    <sortState ref="A2:C276">
+      <sortCondition ref="A1:A276"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4414,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77C6C6F-34F3-5A4F-9255-4F3FBD59FD1D}">
   <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
